--- a/WorkBot/main/backend/ordering/OrderFiles/Webstaurant/Webstaurant_Bakery_20250322.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Webstaurant/Webstaurant_Bakery_20250322.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,6 +552,303 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>711MAVYELLOW</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sprinkles - Yellow</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>59.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>10207579</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Salt - Sea Coarse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>245CBB25183</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Box Cake - Full Sheet (Bottom)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>45.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>409ML90266</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Choc Curls - Dark</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>113.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>340.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>433SLINERBL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sheet Pan Liner - Silicone Coated</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>307.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5000TOUT96</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Java Box (96oz)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>327.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>245CCGR2518</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cake Board - Full Sheet (SO)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>56.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>56.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>245CCGR1410BL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cake Board - 1/4 Sheet</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>32.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>150300865</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bag Paper - 6x13.5 Window</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>319.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>271241CUTC</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mop Head Cut (White)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>52.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5004CAFE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cup - Espresso (4oz)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
